--- a/Measurements.xlsx
+++ b/Measurements.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mads/Desktop/Git/02112-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22D6E8D8-F1F4-DD4D-8787-D22C5254A3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BCDB53-00DE-164B-A052-9E4E214EEDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{DA8545D5-7B9F-4B4B-9000-2879DC1DECA9}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" xr2:uid="{DA8545D5-7B9F-4B4B-9000-2879DC1DECA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Light</t>
   </si>
@@ -177,21 +177,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -210,9 +208,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -250,7 +248,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -356,7 +354,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -498,7 +496,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -506,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B774278-EAB2-1445-A22C-9B9874BE3AA1}">
-  <dimension ref="B2:F25"/>
+  <dimension ref="B2:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="C13:D13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -519,82 +517,72 @@
     <col min="7" max="7" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>4000</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C4" s="1">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1">
         <v>2000</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="6" t="s">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -604,40 +592,41 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C12" s="1">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="2:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="B15" s="5" t="s">
+      <c r="C13" s="7">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C14" s="1">
         <v>2</v>
       </c>
-      <c r="D15" s="9">
-        <v>3.472222222222222E-3</v>
+      <c r="D14" s="7">
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -654,7 +643,7 @@
       <c r="C18" s="1">
         <v>1015</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -665,7 +654,7 @@
       <c r="C19" s="1">
         <v>390</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -683,7 +672,7 @@
       <c r="C21" s="1">
         <v>750</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -694,7 +683,7 @@
       <c r="C22" s="1">
         <v>420</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="5">
         <v>1</v>
       </c>
     </row>
@@ -705,7 +694,7 @@
       <c r="C23" s="1">
         <v>1015</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="5">
         <v>0.8</v>
       </c>
     </row>
@@ -716,12 +705,12 @@
       <c r="C24" s="1">
         <v>325</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="5">
         <v>0.22</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C25" s="1">

--- a/Measurements.xlsx
+++ b/Measurements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mads/Desktop/Git/02112-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BCDB53-00DE-164B-A052-9E4E214EEDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC407E66-C176-754B-A930-1B53B2E955AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" xr2:uid="{DA8545D5-7B9F-4B4B-9000-2879DC1DECA9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Light</t>
   </si>
@@ -108,6 +108,24 @@
   </si>
   <si>
     <t>Outside twillight</t>
+  </si>
+  <si>
+    <t>Soil Readings</t>
+  </si>
+  <si>
+    <t>Very Wet</t>
+  </si>
+  <si>
+    <t>Wet</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Dry</t>
+  </si>
+  <si>
+    <t>Very Dry</t>
   </si>
 </sst>
 </file>
@@ -177,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -189,7 +207,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,68 +521,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B774278-EAB2-1445-A22C-9B9874BE3AA1}">
-  <dimension ref="B2:D25"/>
+  <dimension ref="B2:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.1640625" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1">
         <v>3200</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1">
         <v>2000</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
@@ -573,7 +611,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
@@ -581,7 +619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
@@ -592,36 +630,36 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="1">
         <v>30</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="1">
         <v>31.5</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="1">
         <v>24</v>
       </c>
       <c r="D13" s="1">
         <v>22.5</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="1">
         <v>0.5</v>
       </c>
     </row>
@@ -662,8 +700,12 @@
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="C20" s="1">
+        <v>670</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">

--- a/Measurements.xlsx
+++ b/Measurements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mads/Desktop/Git/02112-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC407E66-C176-754B-A930-1B53B2E955AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDF0CB5-1F3B-D542-9944-4A434BAF4B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" xr2:uid="{DA8545D5-7B9F-4B4B-9000-2879DC1DECA9}"/>
   </bookViews>
@@ -524,7 +524,7 @@
   <dimension ref="B2:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -577,6 +577,9 @@
       <c r="F5" t="s">
         <v>27</v>
       </c>
+      <c r="G5">
+        <v>850</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
